--- a/files/fertilizerOptimizationV6.xlsx
+++ b/files/fertilizerOptimizationV6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IDEA\Desktop\navigator-tool\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEA7FBF-A6E4-4340-A25C-F7641BB12A74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92172BF5-0D65-4F9F-BBD1-0E069F7EEAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14040" xr2:uid="{D90DFCFE-8AB8-1941-B87D-BC42B6C51F61}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="459">
   <si>
     <t>Fertilizer_ID</t>
   </si>
@@ -1408,9 +1408,6 @@
   </si>
   <si>
     <t>Acronym</t>
-  </si>
-  <si>
-    <t>10,8</t>
   </si>
   <si>
     <t>0,02</t>
@@ -1436,44 +1433,52 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1631,7 +1636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1732,18 +1737,21 @@
     <xf numFmtId="9" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2062,8 +2070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5D754C-C3E3-9740-951A-93494A72E678}">
   <dimension ref="A1:AG104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2164,41 +2172,41 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="47"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="49" t="s">
+      <c r="O2" s="47"/>
+      <c r="P2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="48"/>
+      <c r="Q2" s="47"/>
       <c r="R2" s="8" t="s">
         <v>29</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="50" t="s">
+      <c r="T2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
       <c r="W2" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="50" t="s">
+      <c r="X2" s="47"/>
+      <c r="Y2" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="48"/>
+      <c r="Z2" s="47"/>
       <c r="AA2" s="9" t="s">
         <v>34</v>
       </c>
@@ -8064,8 +8072,8 @@
       <c r="F99" s="29">
         <v>0.995</v>
       </c>
-      <c r="G99" s="27" t="s">
-        <v>458</v>
+      <c r="G99" s="52">
+        <v>10.8</v>
       </c>
       <c r="H99" s="43"/>
       <c r="I99" s="43"/>
@@ -8124,7 +8132,7 @@
         <v>0.995</v>
       </c>
       <c r="G100" s="27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H100" s="43"/>
       <c r="I100" s="43"/>
